--- a/TestData/2_loc_auto_key/data/LocTrans.xlsx
+++ b/TestData/2_loc_auto_key/data/LocTrans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ExportExcel\Test\2_loc_auto_key\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\TestData\2_loc_auto_key\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A48D2EF-26E7-4E66-912A-562E87D28497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D46E14-1E50-41FD-8E61-10C54DB3AADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>SC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>EN</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -79,6 +75,10 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-Hans</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -691,71 +691,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -784,7 +763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1083,7 +1062,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,13 +1074,13 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
@@ -1109,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1137,77 +1116,62 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="O1:T1 O3:T3 A1:L1 A3:L3">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A1:T1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>公式单元格=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>公式单元格=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>公式单元格=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A3:T3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
